--- a/THolt.xlsx
+++ b/THolt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/PycharmProjects/YJCX_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8F0A77-D9A9-D248-80B8-0E4FF35D1B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E914E9-2633-A640-B1AF-60B185B459D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36280" yWindow="5400" windowWidth="38120" windowHeight="18440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="2220" windowWidth="38120" windowHeight="18440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ppn" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16682" uniqueCount="1881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16676" uniqueCount="1881">
   <si>
     <t>ADK-3110</t>
   </si>
@@ -57900,8 +57900,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J626"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G631" sqref="G631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -69552,8 +69552,8 @@
       <c r="F364" t="s">
         <v>1246</v>
       </c>
-      <c r="G364" t="s">
-        <v>1764</v>
+      <c r="G364">
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>1880</v>
@@ -70448,8 +70448,8 @@
       <c r="F392" t="s">
         <v>1283</v>
       </c>
-      <c r="G392" t="s">
-        <v>1764</v>
+      <c r="G392">
+        <v>0</v>
       </c>
       <c r="H392" t="s">
         <v>1880</v>
@@ -70608,8 +70608,8 @@
       <c r="F397" t="s">
         <v>1290</v>
       </c>
-      <c r="G397" t="s">
-        <v>1764</v>
+      <c r="G397">
+        <v>0</v>
       </c>
       <c r="H397" t="s">
         <v>1880</v>
@@ -71888,8 +71888,8 @@
       <c r="F437" t="s">
         <v>1350</v>
       </c>
-      <c r="G437" t="s">
-        <v>1764</v>
+      <c r="G437">
+        <v>0</v>
       </c>
       <c r="H437" t="s">
         <v>1880</v>
@@ -72720,8 +72720,8 @@
       <c r="F463" t="s">
         <v>1384</v>
       </c>
-      <c r="G463" t="s">
-        <v>1764</v>
+      <c r="G463">
+        <v>0</v>
       </c>
       <c r="H463" t="s">
         <v>1880</v>
@@ -73776,8 +73776,8 @@
       <c r="F496" t="s">
         <v>1411</v>
       </c>
-      <c r="G496" t="s">
-        <v>1764</v>
+      <c r="G496">
+        <v>0</v>
       </c>
       <c r="H496" t="s">
         <v>1880</v>

--- a/THolt.xlsx
+++ b/THolt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/PycharmProjects/YJCX_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B5F257-2E97-7744-B882-AED0B1F3DC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644C780-1EDB-5547-9A2A-F57F6F5A0393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38120" yWindow="1040" windowWidth="38120" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="2820" windowWidth="30240" windowHeight="17760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="7" r:id="rId1"/>
@@ -6062,7 +6062,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K626"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B647" sqref="B647"/>
     </sheetView>
   </sheetViews>
@@ -58945,9 +58945,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E625"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+    <col min="4" max="4" width="48.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
